--- a/biology/Zoologie/Echinocorythidae/Echinocorythidae.xlsx
+++ b/biology/Zoologie/Echinocorythidae/Echinocorythidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Echinocorythidae forment une famille éteinte d'oursins irréguliers de l'ordre des Holasteroida qui a vécu de la fin du Crétacé jusqu'au Paléocène.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les caractères de cette famille fossile sont les suivants[réf. nécessaire] :
 structure holastéroïde habituelle ;
@@ -545,7 +559,9 @@
           <t>Répartition stratigraphique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a vécu de la fin du Crétacé au Paléocène. 
 Ses restes ont été trouvés en Asie, en Europe et en Amérique du Nord.
@@ -577,28 +593,99 @@
           <t>Systématique et taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Echinocorythidae a été décrite par le paléontologue britannique Thomas Wright en 1857[1]. 
-Le genre type est Echinocorys[2],[3],[P 1],[NHM 1],[WoRMS 1],[WED 1] (Leske, 1778 †) ; ses synonymes sont :
-Oolaster[2],[NHM 2],[WoRMS 2],[WED 2] (Laube, 1869 †) ;
-Ananchytes[2],[3],[NHM 3],[WoRMS 3],[WED 3] (Lamarck, 1816 †) ;
-Ananchitis[2],[NHM 4],[WoRMS 4],[WED 4] (Lamarck, 1801 †) ;
-non Ananchytis[2], (Mercati, 1717 †).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La famille des Echinocorythidae a été décrite par le paléontologue britannique Thomas Wright en 1857. 
+Le genre type est Echinocorys[P 1],[NHM 1],[WoRMS 1],[WED 1] (Leske, 1778 †) ; ses synonymes sont :
+Oolaster,[NHM 2],[WoRMS 2],[WED 2] (Laube, 1869 †) ;
+Ananchytes[NHM 3],[WoRMS 3],[WED 3] (Lamarck, 1816 †) ;
+Ananchitis,[NHM 4],[WoRMS 4],[WED 4] (Lamarck, 1801 †) ;
+non Ananchytis, (Mercati, 1717 †).
 Selon une autre classification, ce genre Echinocorys appartient à la famille voisine Holasteridae (en)[MNHN 1].
 Un autre genre appartenant à la famille Echinocorythidae est Pseudananchys[NHM 5],[WoRMS 5],[WED 5] (Pomel, 1883 †) ; ses synonymes sont :
 Craginaster[NHM 6],[WoRMS 6],[WED 6] (Lambert, 1903) ;
-Zumoffenia[NHM 7],[WoRMS 7],[WED 7] (Fourtau, 1912 †).
-Genre Echynocorys
-Le genre Echinocorys (Leske, 1778 †) est décrit par les caractères suivants[P 1] :
+Zumoffenia[NHM 7],[WoRMS 7],[WED 7] (Fourtau, 1912 †).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Echinocorythidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocorythidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique et taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genre Echynocorys</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Echinocorys (Leske, 1778 †) est décrit par les caractères suivants[P 1] :
 ovoïde ;
 ambulacres tous semblables, sans sillon antérieur, avec des pores légèrement conjugués, dont l'externe est un peu allongé ;
 tuberculation fine et uniforme ;
 pas de labre ;
 pas de fascioles.
-Ce genre possède de nombreuses espèces, dont l'espèce type décrite par Leske : Echinocorys scutata[4] ou scutatus[MNHN 2] (Leske, 1778) alias Echinocorys conoidea[5],[P 2] (Goldfuss, 1829).
-Genre Pseudananchys
-Le genre Pseudananchys (Pomel, 1883 †) est moins développé [cf. synonymes supra].
+Ce genre possède de nombreuses espèces, dont l'espèce type décrite par Leske : Echinocorys scutata ou scutatus[MNHN 2] (Leske, 1778) alias Echinocorys conoidea,[P 2] (Goldfuss, 1829).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Echinocorythidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocorythidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique et taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genre Pseudananchys</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Pseudananchys (Pomel, 1883 †) est moins développé [cf. synonymes supra].
 Pseudananchys algiris[NHM 5] (Coquand, 1862)
 Pseudananchys completa[NHM 5] (Cragin, 1892)
 Pseudananchys ludovici[NHM 5] (Fourtau, 1912)
@@ -610,31 +697,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Echinocorythidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Echinocorythidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Bases de données taxinomiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Référence WoRMS : Echinocorythidae Wright, 1857 † (+ liste genres + liste espèces)
 (en) Référence Catalogue of Life : Echinocorythidae Wright, 1857 (consulté le 10 avril 2023)</t>
